--- a/biology/Biologie cellulaire et moléculaire/Sillon_de_division/Sillon_de_division.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Sillon_de_division/Sillon_de_division.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sillon de division est l'invagination de la surface cellulaire, se situant à l'endroit où se trouvait la plaque équatoriale. Il est la première indication de la segmentation dans une cellule animale ou une cellule d'algue subissant la cytocinèse, la division définitive du cytoplasme pendant le processus de division cellulaire. 
 Quand les microfilaments d'actine interagissent avec les myosines, ceci provoque la diminution progressive du diamètre du sillon. 
